--- a/misc files/ACT - BBQ locations.xlsx
+++ b/misc files/ACT - BBQ locations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="275">
   <si>
     <t>IIT_NE_ID</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>C# ViewModel</t>
+  </si>
+  <si>
+    <t>proper casing</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1217,10 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:IV99"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1247,7 @@
     <col min="20" max="256" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1308,8 +1311,11 @@
       <c r="U1" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4325150</v>
       </c>
@@ -1361,8 +1367,12 @@
       <c r="U2">
         <v>149.08430638361111</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V2" t="str">
+        <f>PROPER(N2)</f>
+        <v>Point Hut District Park</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>4223956</v>
       </c>
@@ -1420,8 +1430,12 @@
       <c r="U3">
         <v>149.15100653166667</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V66" si="0">PROPER(N3)</f>
+        <v>Rememberance Park</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4223982</v>
       </c>
@@ -1477,8 +1491,12 @@
       <c r="U4">
         <v>149.15126871777778</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V4" t="str">
+        <f t="shared" si="0"/>
+        <v>Rememberance Park</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2524152</v>
       </c>
@@ -1540,8 +1558,12 @@
       <c r="U5">
         <v>149.09026374277778</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V5" t="str">
+        <f t="shared" si="0"/>
+        <v>Edison District Park</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2524153</v>
       </c>
@@ -1601,8 +1623,12 @@
       <c r="U6">
         <v>149.0900415952778</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V6" t="str">
+        <f t="shared" si="0"/>
+        <v>Edison District Park</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2524154</v>
       </c>
@@ -1664,8 +1690,12 @@
       <c r="U7">
         <v>149.08315695666667</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" t="str">
+        <f t="shared" si="0"/>
+        <v>Phillip Town Centre</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2524155</v>
       </c>
@@ -1727,8 +1757,12 @@
       <c r="U8">
         <v>149.08691370944445</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" t="str">
+        <f t="shared" si="0"/>
+        <v>Phillip Town Centre</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2524156</v>
       </c>
@@ -1790,8 +1824,12 @@
       <c r="U9">
         <v>149.08897375000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" t="str">
+        <f t="shared" si="0"/>
+        <v>Groom Street - Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2524157</v>
       </c>
@@ -1853,8 +1891,12 @@
       <c r="U10">
         <v>149.05728793500001</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" t="str">
+        <f t="shared" si="0"/>
+        <v>Araluen Street - Neighbourhood Park</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2524158</v>
       </c>
@@ -1916,8 +1958,12 @@
       <c r="U11">
         <v>149.13324905416667</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" t="str">
+        <f t="shared" si="0"/>
+        <v>Lowanna Street - Neighbourhood Park</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2524159</v>
       </c>
@@ -1973,8 +2019,12 @@
       <c r="U12">
         <v>149.13397897888888</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" t="str">
+        <f t="shared" si="0"/>
+        <v>Lowanna Street - Neighbourhood Park</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2524163</v>
       </c>
@@ -2036,8 +2086,12 @@
       <c r="U13">
         <v>149.12844226750002</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" t="str">
+        <f t="shared" si="0"/>
+        <v>Haig Park</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2524164</v>
       </c>
@@ -2099,8 +2153,12 @@
       <c r="U14">
         <v>149.12652939861113</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" t="str">
+        <f t="shared" si="0"/>
+        <v>Haig Park</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2524165</v>
       </c>
@@ -2162,8 +2220,12 @@
       <c r="U15">
         <v>149.14236726472222</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" t="str">
+        <f t="shared" si="0"/>
+        <v>Corroboree Park</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2524166</v>
       </c>
@@ -2225,8 +2287,12 @@
       <c r="U16">
         <v>149.13638735277777</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V16" t="str">
+        <f t="shared" si="0"/>
+        <v>Glebe Park</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2524167</v>
       </c>
@@ -2288,8 +2354,12 @@
       <c r="U17">
         <v>149.13664595027777</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V17" t="str">
+        <f t="shared" si="0"/>
+        <v>Glebe Park</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2524168</v>
       </c>
@@ -2351,8 +2421,12 @@
       <c r="U18">
         <v>149.13634045222221</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V18" t="str">
+        <f t="shared" si="0"/>
+        <v>Glebe Park</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2524171</v>
       </c>
@@ -2414,8 +2488,12 @@
       <c r="U19">
         <v>149.16736595166665</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V19" t="str">
+        <f t="shared" si="0"/>
+        <v>Molonglo Reach District Park</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2524172</v>
       </c>
@@ -2477,8 +2555,12 @@
       <c r="U20">
         <v>149.10143369333332</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V20" t="str">
+        <f t="shared" si="0"/>
+        <v>Black Mountain Peninsula District Park</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2524173</v>
       </c>
@@ -2540,8 +2622,12 @@
       <c r="U21">
         <v>149.09958337638889</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V21" t="str">
+        <f t="shared" si="0"/>
+        <v>Black Mountain Peninsula District Park</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2524174</v>
       </c>
@@ -2603,8 +2689,12 @@
       <c r="U22">
         <v>149.1001386675</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V22" t="str">
+        <f t="shared" si="0"/>
+        <v>Black Mountain Peninsula District Park</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2524175</v>
       </c>
@@ -2666,8 +2756,12 @@
       <c r="U23">
         <v>149.10097284833333</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V23" t="str">
+        <f t="shared" si="0"/>
+        <v>Black Mountain Peninsula District Park</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2524176</v>
       </c>
@@ -2729,8 +2823,12 @@
       <c r="U24">
         <v>149.12472294388888</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V24" t="str">
+        <f t="shared" si="0"/>
+        <v>Acton Park District Park</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2524177</v>
       </c>
@@ -2792,8 +2890,12 @@
       <c r="U25">
         <v>149.12439368611112</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V25" t="str">
+        <f t="shared" si="0"/>
+        <v>Acton Park District Park</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2524178</v>
       </c>
@@ -2855,8 +2957,12 @@
       <c r="U26">
         <v>149.07421343305555</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ginninderra Peninsula District Park</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2524179</v>
       </c>
@@ -2918,8 +3024,12 @@
       <c r="U27">
         <v>149.07401866972222</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V27" t="str">
+        <f t="shared" si="0"/>
+        <v>Diddams Close Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2524180</v>
       </c>
@@ -2981,8 +3091,12 @@
       <c r="U28">
         <v>149.0627282677778</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V28" t="str">
+        <f t="shared" si="0"/>
+        <v>Joynton Smith Drive Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2524181</v>
       </c>
@@ -3046,8 +3160,12 @@
       <c r="U29">
         <v>149.06344848222224</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V29" t="str">
+        <f t="shared" si="0"/>
+        <v>Lake Ginninderra Western Foreshores</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2524182</v>
       </c>
@@ -3109,8 +3227,12 @@
       <c r="U30">
         <v>149.06337945222222</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V30" t="str">
+        <f t="shared" si="0"/>
+        <v>Lake Ginninderra Western Foreshores</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2524183</v>
       </c>
@@ -3174,8 +3296,12 @@
       <c r="U31">
         <v>149.06318664083335</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V31" t="str">
+        <f t="shared" si="0"/>
+        <v>Lake Ginninderra Western Foreshores</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2524184</v>
       </c>
@@ -3237,8 +3363,12 @@
       <c r="U32">
         <v>149.0632299225</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V32" t="str">
+        <f t="shared" si="0"/>
+        <v>Lake Ginninderra Western Foreshores</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2524185</v>
       </c>
@@ -3302,8 +3432,12 @@
       <c r="U33">
         <v>149.06282296194445</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V33" t="str">
+        <f t="shared" si="0"/>
+        <v>Lake Ginninderra Western Foreshores</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2524186</v>
       </c>
@@ -3359,8 +3493,12 @@
       <c r="U34">
         <v>149.06028199944444</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V34" t="str">
+        <f t="shared" si="0"/>
+        <v>Totterdell Street Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2524187</v>
       </c>
@@ -3422,8 +3560,12 @@
       <c r="U35">
         <v>149.06960032500001</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V35" t="str">
+        <f t="shared" si="0"/>
+        <v>Ginninderra Peninsula District Park</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2524188</v>
       </c>
@@ -3485,8 +3627,12 @@
       <c r="U36">
         <v>149.06942067444444</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V36" t="str">
+        <f t="shared" si="0"/>
+        <v>Ginninderra Peninsula District Park</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2524189</v>
       </c>
@@ -3548,8 +3694,12 @@
       <c r="U37">
         <v>149.07337771444443</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V37" t="str">
+        <f t="shared" si="0"/>
+        <v>John Knight Memorial Park</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2524190</v>
       </c>
@@ -3611,8 +3761,12 @@
       <c r="U38">
         <v>149.07336354888889</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V38" t="str">
+        <f t="shared" si="0"/>
+        <v>John Knight Memorial Park</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2524191</v>
       </c>
@@ -3668,8 +3822,12 @@
       <c r="U39">
         <v>149.06710429638889</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V39" t="str">
+        <f t="shared" si="0"/>
+        <v>Carlile Street Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2524192</v>
       </c>
@@ -3725,8 +3883,12 @@
       <c r="U40">
         <v>149.05692773666667</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V40" t="str">
+        <f t="shared" si="0"/>
+        <v>Tattersall Crescent Neighbourhood Park</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2524193</v>
       </c>
@@ -3782,8 +3944,12 @@
       <c r="U41">
         <v>149.06970083277778</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V41" t="str">
+        <f t="shared" si="0"/>
+        <v>Hall Park</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2524194</v>
       </c>
@@ -3839,8 +4005,12 @@
       <c r="U42">
         <v>149.06978448916666</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V42" t="str">
+        <f t="shared" si="0"/>
+        <v>Hall Park</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2524195</v>
       </c>
@@ -3904,8 +4074,12 @@
       <c r="U43">
         <v>149.03109260166667</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V43" t="str">
+        <f t="shared" si="0"/>
+        <v>Umbagong District Park</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2524196</v>
       </c>
@@ -3969,8 +4143,12 @@
       <c r="U44">
         <v>149.0288525777778</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V44" t="str">
+        <f t="shared" si="0"/>
+        <v>Umbagong District Park</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2524197</v>
       </c>
@@ -4034,8 +4212,12 @@
       <c r="U45">
         <v>149.02898493666669</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V45" t="str">
+        <f t="shared" si="0"/>
+        <v>Umbagong District Park</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2524198</v>
       </c>
@@ -4099,8 +4281,12 @@
       <c r="U46">
         <v>149.01409828777778</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V46" t="str">
+        <f t="shared" si="0"/>
+        <v>Marks Place Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2524199</v>
       </c>
@@ -4164,8 +4350,12 @@
       <c r="U47">
         <v>149.01479495555554</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V47" t="str">
+        <f t="shared" si="0"/>
+        <v>Harper Street Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2524200</v>
       </c>
@@ -4229,8 +4419,12 @@
       <c r="U48">
         <v>149.08574079027778</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V48" t="str">
+        <f t="shared" si="0"/>
+        <v>Palmerville Heritage Park</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2524201</v>
       </c>
@@ -4294,8 +4488,12 @@
       <c r="U49">
         <v>149.08555615916669</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V49" t="str">
+        <f t="shared" si="0"/>
+        <v>Palmerville Heritage Park</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2524204</v>
       </c>
@@ -4353,8 +4551,12 @@
       <c r="U50">
         <v>149.13063986083333</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V50" t="str">
+        <f t="shared" si="0"/>
+        <v>Yerrabi District Park</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2524205</v>
       </c>
@@ -4412,8 +4614,12 @@
       <c r="U51">
         <v>149.13087482500001</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V51" t="str">
+        <f t="shared" si="0"/>
+        <v>Yerrabi District Park</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2524206</v>
       </c>
@@ -4471,8 +4677,12 @@
       <c r="U52">
         <v>149.1308299625</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V52" t="str">
+        <f t="shared" si="0"/>
+        <v>Yerrabi District Park</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2524207</v>
       </c>
@@ -4530,8 +4740,12 @@
       <c r="U53">
         <v>149.1306033686111</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V53" t="str">
+        <f t="shared" si="0"/>
+        <v>Yerrabi District Park</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2524208</v>
       </c>
@@ -4587,8 +4801,12 @@
       <c r="U54">
         <v>149.14218595333332</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V54" t="str">
+        <f t="shared" si="0"/>
+        <v>Baillieu Lane Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>2524209</v>
       </c>
@@ -4644,8 +4862,12 @@
       <c r="U55">
         <v>149.08394238972224</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V55" t="str">
+        <f t="shared" si="0"/>
+        <v>Griffin Place - Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2524210</v>
       </c>
@@ -4701,8 +4923,12 @@
       <c r="U56">
         <v>149.07878835194444</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V56" t="str">
+        <f t="shared" si="0"/>
+        <v>Newman-Morris Circuit - Neighbourhood Park</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2524211</v>
       </c>
@@ -4764,8 +4990,12 @@
       <c r="U57">
         <v>149.06053032055556</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V57" t="str">
+        <f t="shared" si="0"/>
+        <v>Kambah District Park</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2524212</v>
       </c>
@@ -4827,8 +5057,12 @@
       <c r="U58">
         <v>149.06043036111112</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V58" t="str">
+        <f t="shared" si="0"/>
+        <v>Kambah District Park</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2524213</v>
       </c>
@@ -4890,8 +5124,12 @@
       <c r="U59">
         <v>149.06214088166666</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V59" t="str">
+        <f t="shared" si="0"/>
+        <v>Kambah District Park</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2524214</v>
       </c>
@@ -4953,8 +5191,12 @@
       <c r="U60">
         <v>149.06208656333334</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V60" t="str">
+        <f t="shared" si="0"/>
+        <v>Kambah District Park</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2524215</v>
       </c>
@@ -5016,8 +5258,12 @@
       <c r="U61">
         <v>149.06202186416667</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V61" t="str">
+        <f t="shared" si="0"/>
+        <v>Kambah District Park</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2524216</v>
       </c>
@@ -5079,8 +5325,12 @@
       <c r="U62">
         <v>149.06473373416668</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V62" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuggeranong Town Park</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2524217</v>
       </c>
@@ -5136,8 +5386,12 @@
       <c r="U63">
         <v>149.08469713972224</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V63" t="str">
+        <f t="shared" si="0"/>
+        <v>Point Hut District Park</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>2524218</v>
       </c>
@@ -5193,8 +5447,12 @@
       <c r="U64">
         <v>149.17666069694442</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V64" t="str">
+        <f t="shared" si="0"/>
+        <v>Maryborough Street - Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2524219</v>
       </c>
@@ -5250,8 +5508,12 @@
       <c r="U65">
         <v>149.17657863083332</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V65" t="str">
+        <f t="shared" si="0"/>
+        <v>Maryborough Street - Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2524220</v>
       </c>
@@ -5315,8 +5577,12 @@
       <c r="U66">
         <v>149.11207327388888</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V66" t="str">
+        <f t="shared" si="0"/>
+        <v>Bedford Street - Neighbourhood Park</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2524221</v>
       </c>
@@ -5378,8 +5644,12 @@
       <c r="U67">
         <v>149.1372983536111</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V67" t="str">
+        <f t="shared" ref="V67:V102" si="1">PROPER(N67)</f>
+        <v>Telopea Park</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2524222</v>
       </c>
@@ -5441,8 +5711,12 @@
       <c r="U68">
         <v>149.13719974361109</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V68" t="str">
+        <f t="shared" si="1"/>
+        <v>Telopea Park</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2524224</v>
       </c>
@@ -5504,8 +5778,12 @@
       <c r="U69">
         <v>149.1377928025</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V69" t="str">
+        <f t="shared" si="1"/>
+        <v>Telopea Park</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>2524225</v>
       </c>
@@ -5567,8 +5845,12 @@
       <c r="U70">
         <v>149.14014497777777</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V70" t="str">
+        <f t="shared" si="1"/>
+        <v>Telopea Park</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>5823000</v>
       </c>
@@ -5622,8 +5904,12 @@
       <c r="U71">
         <v>149.13634045222221</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V71" t="str">
+        <f t="shared" si="1"/>
+        <v>Telopea Park</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2524226</v>
       </c>
@@ -5685,8 +5971,12 @@
       <c r="U72">
         <v>149.10926652277777</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V72" t="str">
+        <f t="shared" si="1"/>
+        <v>Alexandrina Drive - Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2524227</v>
       </c>
@@ -5748,8 +6038,12 @@
       <c r="U73">
         <v>149.11060368638888</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V73" t="str">
+        <f t="shared" si="1"/>
+        <v>Alexandrina Drive - Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2524228</v>
       </c>
@@ -5811,8 +6105,12 @@
       <c r="U74">
         <v>149.12108222472224</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V74" t="str">
+        <f t="shared" si="1"/>
+        <v>Lennox Gardens</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2524229</v>
       </c>
@@ -5874,8 +6172,12 @@
       <c r="U75">
         <v>149.12145216499999</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V75" t="str">
+        <f t="shared" si="1"/>
+        <v>Lennox Gardens</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>2524230</v>
       </c>
@@ -5937,8 +6239,12 @@
       <c r="U76">
         <v>149.1218063588889</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V76" t="str">
+        <f t="shared" si="1"/>
+        <v>Lennox Gardens</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>2524231</v>
       </c>
@@ -6000,8 +6306,12 @@
       <c r="U77">
         <v>149.09515265611111</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V77" t="str">
+        <f t="shared" si="1"/>
+        <v>Weston Park</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2524232</v>
       </c>
@@ -6065,8 +6375,12 @@
       <c r="U78">
         <v>149.0933929052778</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V78" t="str">
+        <f t="shared" si="1"/>
+        <v>Weston Park</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2524233</v>
       </c>
@@ -6128,8 +6442,12 @@
       <c r="U79">
         <v>149.09018163888891</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V79" t="str">
+        <f t="shared" si="1"/>
+        <v>Weston Park</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2524234</v>
       </c>
@@ -6193,8 +6511,12 @@
       <c r="U80">
         <v>149.09319869666669</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V80" t="str">
+        <f t="shared" si="1"/>
+        <v>Weston Park</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2524235</v>
       </c>
@@ -6256,8 +6578,12 @@
       <c r="U81">
         <v>149.09117874333333</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V81" t="str">
+        <f t="shared" si="1"/>
+        <v>Weston Park</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2524236</v>
       </c>
@@ -6319,8 +6645,12 @@
       <c r="U82">
         <v>149.09215420194445</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V82" t="str">
+        <f t="shared" si="1"/>
+        <v>Weston Park</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2524237</v>
       </c>
@@ -6376,8 +6706,12 @@
       <c r="U83">
         <v>149.09547073361111</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V83" t="str">
+        <f t="shared" si="1"/>
+        <v>Weston Park</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2524239</v>
       </c>
@@ -6439,8 +6773,12 @@
       <c r="U84">
         <v>149.1240221638889</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V84" t="str">
+        <f t="shared" si="1"/>
+        <v>Ellenborough Street - Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2524240</v>
       </c>
@@ -6502,8 +6840,12 @@
       <c r="U85">
         <v>149.07424507444443</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V85" t="str">
+        <f t="shared" si="1"/>
+        <v>John Knight Memorial Park</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2524241</v>
       </c>
@@ -6565,8 +6907,12 @@
       <c r="U86">
         <v>149.07420547277778</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V86" t="str">
+        <f t="shared" si="1"/>
+        <v>John Knight Memorial Park</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2524243</v>
       </c>
@@ -6622,8 +6968,12 @@
       <c r="U87">
         <v>149.06310779472224</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V87" t="str">
+        <f t="shared" si="1"/>
+        <v>Victoria Street Road Verge</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2524245</v>
       </c>
@@ -6687,8 +7037,12 @@
       <c r="U88">
         <v>149.12023597500001</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V88" t="str">
+        <f t="shared" si="1"/>
+        <v>Fadden Pines District Park</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2524246</v>
       </c>
@@ -6750,8 +7104,12 @@
       <c r="U89">
         <v>149.12002953916667</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V89" t="str">
+        <f t="shared" si="1"/>
+        <v>Fadden Pines District Park</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2524247</v>
       </c>
@@ -6813,8 +7171,12 @@
       <c r="U90">
         <v>149.11936413777778</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V90" t="str">
+        <f t="shared" si="1"/>
+        <v>Fadden Pines District Park</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2524249</v>
       </c>
@@ -6878,8 +7240,12 @@
       <c r="U91">
         <v>149.12108924694445</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V91" t="str">
+        <f t="shared" si="1"/>
+        <v>Fadden Pines District Park</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2524250</v>
       </c>
@@ -6931,8 +7297,12 @@
       <c r="U92">
         <v>149.11000377166667</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V92" t="str">
+        <f t="shared" si="1"/>
+        <v>Candlebark Close Neighbourhood Park</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2524251</v>
       </c>
@@ -6984,8 +7354,12 @@
       <c r="U93">
         <v>149.11013786472222</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V93" t="str">
+        <f t="shared" si="1"/>
+        <v>Candlebark Close Neighbourhood Park</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2524252</v>
       </c>
@@ -7041,8 +7415,12 @@
       <c r="U94">
         <v>149.06509157277779</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V94" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuggeranong Town Park</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2524253</v>
       </c>
@@ -7094,8 +7472,12 @@
       <c r="U95">
         <v>149.06979267555556</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V95" t="str">
+        <f t="shared" si="1"/>
+        <v>Lake Tuggeranong District Park</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>2524254</v>
       </c>
@@ -7147,8 +7529,12 @@
       <c r="U96">
         <v>149.07056991083334</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V96" t="str">
+        <f t="shared" si="1"/>
+        <v>Lake Tuggeranong District Park</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>2524255</v>
       </c>
@@ -7200,8 +7586,12 @@
       <c r="U97">
         <v>149.07150682111111</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V97" t="str">
+        <f t="shared" si="1"/>
+        <v>Lake Tuggeranong District Park</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>5706719</v>
       </c>
@@ -7247,8 +7637,12 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V98" t="str">
+        <f t="shared" si="1"/>
+        <v>Bunya Close Pedestrian Parkland</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>5823001</v>
       </c>
@@ -7302,8 +7696,12 @@
       <c r="U99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V99" t="str">
+        <f t="shared" si="1"/>
+        <v>Bowen Park</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>5823003</v>
       </c>
@@ -7361,8 +7759,12 @@
       <c r="U100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V100" t="str">
+        <f t="shared" si="1"/>
+        <v>Molonglo Reach Water Ski</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>5823004</v>
       </c>
@@ -7420,8 +7822,12 @@
       <c r="U101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V101" t="str">
+        <f t="shared" si="1"/>
+        <v>Molonglo Reach Water Ski</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>6050715</v>
       </c>
@@ -7468,6 +7874,10 @@
       </c>
       <c r="U102">
         <v>0</v>
+      </c>
+      <c r="V102" t="str">
+        <f t="shared" si="1"/>
+        <v>James Harrison Street Neighbourhood Park</v>
       </c>
     </row>
   </sheetData>
@@ -7482,7 +7892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A97" sqref="A2:A97"/>
     </sheetView>
   </sheetViews>

--- a/misc files/ACT - BBQ locations.xlsx
+++ b/misc files/ACT - BBQ locations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
   </sheetPr>
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -7892,8 +7892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A97" sqref="A2:A97"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7905,584 +7905,584 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N2 &amp;""", Latitude="&amp;'Sheet 1'!T2 &amp;", Longitude="&amp; 'Sheet 1'!U2 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="POINT HUT DISTRICT PARK", Latitude=-35.4558089566667, Longitude=149.084306383611 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V2 &amp;""", Latitude="&amp;'Sheet 1'!T2 &amp;", Longitude="&amp; 'Sheet 1'!U2 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Point Hut District Park", Latitude=-35.4558089566667, Longitude=149.084306383611 });</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N3 &amp;""", Latitude="&amp;'Sheet 1'!T3 &amp;", Longitude="&amp; 'Sheet 1'!U3 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="REMEMBERANCE PARK", Latitude=-35.2798894361111, Longitude=149.151006531667 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V3 &amp;""", Latitude="&amp;'Sheet 1'!T3 &amp;", Longitude="&amp; 'Sheet 1'!U3 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Rememberance Park", Latitude=-35.2798894361111, Longitude=149.151006531667 });</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N4 &amp;""", Latitude="&amp;'Sheet 1'!T4 &amp;", Longitude="&amp; 'Sheet 1'!U4 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="REMEMBERANCE PARK", Latitude=-35.279479055, Longitude=149.151268717778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V4 &amp;""", Latitude="&amp;'Sheet 1'!T4 &amp;", Longitude="&amp; 'Sheet 1'!U4 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Rememberance Park", Latitude=-35.279479055, Longitude=149.151268717778 });</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N5 &amp;""", Latitude="&amp;'Sheet 1'!T5 &amp;", Longitude="&amp; 'Sheet 1'!U5 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="EDISON DISTRICT PARK", Latitude=-35.3413403772222, Longitude=149.090263742778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V5 &amp;""", Latitude="&amp;'Sheet 1'!T5 &amp;", Longitude="&amp; 'Sheet 1'!U5 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Edison District Park", Latitude=-35.3413403772222, Longitude=149.090263742778 });</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N6 &amp;""", Latitude="&amp;'Sheet 1'!T6 &amp;", Longitude="&amp; 'Sheet 1'!U6 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="EDISON DISTRICT PARK", Latitude=-35.3413623788889, Longitude=149.090041595278 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V6 &amp;""", Latitude="&amp;'Sheet 1'!T6 &amp;", Longitude="&amp; 'Sheet 1'!U6 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Edison District Park", Latitude=-35.3413623788889, Longitude=149.090041595278 });</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N7 &amp;""", Latitude="&amp;'Sheet 1'!T7 &amp;", Longitude="&amp; 'Sheet 1'!U7 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="PHILLIP TOWN CENTRE", Latitude=-35.3450589936111, Longitude=149.083156956667 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V7 &amp;""", Latitude="&amp;'Sheet 1'!T7 &amp;", Longitude="&amp; 'Sheet 1'!U7 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Phillip Town Centre", Latitude=-35.3450589936111, Longitude=149.083156956667 });</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N8 &amp;""", Latitude="&amp;'Sheet 1'!T8 &amp;", Longitude="&amp; 'Sheet 1'!U8 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="PHILLIP TOWN CENTRE", Latitude=-35.3448118941667, Longitude=149.086913709444 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V8 &amp;""", Latitude="&amp;'Sheet 1'!T8 &amp;", Longitude="&amp; 'Sheet 1'!U8 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Phillip Town Centre", Latitude=-35.3448118941667, Longitude=149.086913709444 });</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N9 &amp;""", Latitude="&amp;'Sheet 1'!T9 &amp;", Longitude="&amp; 'Sheet 1'!U9 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="GROOM STREET - PEDESTRIAN PARKLAND", Latitude=-35.3328748083333, Longitude=149.08897375 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V9 &amp;""", Latitude="&amp;'Sheet 1'!T9 &amp;", Longitude="&amp; 'Sheet 1'!U9 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Groom Street - Pedestrian Parkland", Latitude=-35.3328748083333, Longitude=149.08897375 });</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N10 &amp;""", Latitude="&amp;'Sheet 1'!T10 &amp;", Longitude="&amp; 'Sheet 1'!U10 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="ARALUEN STREET - NEIGHBOURHOOD PARK", Latitude=-35.3606224752778, Longitude=149.057287935 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V10 &amp;""", Latitude="&amp;'Sheet 1'!T10 &amp;", Longitude="&amp; 'Sheet 1'!U10 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Araluen Street - Neighbourhood Park", Latitude=-35.3606224752778, Longitude=149.057287935 });</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N11 &amp;""", Latitude="&amp;'Sheet 1'!T11 &amp;", Longitude="&amp; 'Sheet 1'!U11 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LOWANNA STREET - NEIGHBOURHOOD PARK", Latitude=-35.2648292088889, Longitude=149.133249054167 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V11 &amp;""", Latitude="&amp;'Sheet 1'!T11 &amp;", Longitude="&amp; 'Sheet 1'!U11 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lowanna Street - Neighbourhood Park", Latitude=-35.2648292088889, Longitude=149.133249054167 });</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N12 &amp;""", Latitude="&amp;'Sheet 1'!T12 &amp;", Longitude="&amp; 'Sheet 1'!U12 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LOWANNA STREET - NEIGHBOURHOOD PARK", Latitude=-35.2641967638889, Longitude=149.133978978889 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V12 &amp;""", Latitude="&amp;'Sheet 1'!T12 &amp;", Longitude="&amp; 'Sheet 1'!U12 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lowanna Street - Neighbourhood Park", Latitude=-35.2641967638889, Longitude=149.133978978889 });</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N13 &amp;""", Latitude="&amp;'Sheet 1'!T13 &amp;", Longitude="&amp; 'Sheet 1'!U13 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="HAIG PARK", Latitude=-35.2696807291667, Longitude=149.1284422675 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V13 &amp;""", Latitude="&amp;'Sheet 1'!T13 &amp;", Longitude="&amp; 'Sheet 1'!U13 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Haig Park", Latitude=-35.2696807291667, Longitude=149.1284422675 });</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N14 &amp;""", Latitude="&amp;'Sheet 1'!T14 &amp;", Longitude="&amp; 'Sheet 1'!U14 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="HAIG PARK", Latitude=-35.2689325608333, Longitude=149.126529398611 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V14 &amp;""", Latitude="&amp;'Sheet 1'!T14 &amp;", Longitude="&amp; 'Sheet 1'!U14 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Haig Park", Latitude=-35.2689325608333, Longitude=149.126529398611 });</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N15 &amp;""", Latitude="&amp;'Sheet 1'!T15 &amp;", Longitude="&amp; 'Sheet 1'!U15 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="CORROBOREE PARK", Latitude=-35.2690243916667, Longitude=149.142367264722 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V15 &amp;""", Latitude="&amp;'Sheet 1'!T15 &amp;", Longitude="&amp; 'Sheet 1'!U15 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Corroboree Park", Latitude=-35.2690243916667, Longitude=149.142367264722 });</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N16 &amp;""", Latitude="&amp;'Sheet 1'!T16 &amp;", Longitude="&amp; 'Sheet 1'!U16 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="GLEBE PARK", Latitude=-35.28353588, Longitude=149.136387352778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V16 &amp;""", Latitude="&amp;'Sheet 1'!T16 &amp;", Longitude="&amp; 'Sheet 1'!U16 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Glebe Park", Latitude=-35.28353588, Longitude=149.136387352778 });</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N17 &amp;""", Latitude="&amp;'Sheet 1'!T17 &amp;", Longitude="&amp; 'Sheet 1'!U17 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="GLEBE PARK", Latitude=-35.2823952269444, Longitude=149.136645950278 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V17 &amp;""", Latitude="&amp;'Sheet 1'!T17 &amp;", Longitude="&amp; 'Sheet 1'!U17 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Glebe Park", Latitude=-35.2823952269444, Longitude=149.136645950278 });</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N18 &amp;""", Latitude="&amp;'Sheet 1'!T18 &amp;", Longitude="&amp; 'Sheet 1'!U18 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="GLEBE PARK", Latitude=-35.2818903794444, Longitude=149.136340452222 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V18 &amp;""", Latitude="&amp;'Sheet 1'!T18 &amp;", Longitude="&amp; 'Sheet 1'!U18 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Glebe Park", Latitude=-35.2818903794444, Longitude=149.136340452222 });</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N19 &amp;""", Latitude="&amp;'Sheet 1'!T19 &amp;", Longitude="&amp; 'Sheet 1'!U19 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="MOLONGLO REACH DISTRICT PARK", Latitude=-35.3045930930556, Longitude=149.167365951667 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V19 &amp;""", Latitude="&amp;'Sheet 1'!T19 &amp;", Longitude="&amp; 'Sheet 1'!U19 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Molonglo Reach District Park", Latitude=-35.3045930930556, Longitude=149.167365951667 });</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N20 &amp;""", Latitude="&amp;'Sheet 1'!T20 &amp;", Longitude="&amp; 'Sheet 1'!U20 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="BLACK MOUNTAIN PENINSULA DISTRICT PARK", Latitude=-35.2871874030556, Longitude=149.101433693333 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V20 &amp;""", Latitude="&amp;'Sheet 1'!T20 &amp;", Longitude="&amp; 'Sheet 1'!U20 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Black Mountain Peninsula District Park", Latitude=-35.2871874030556, Longitude=149.101433693333 });</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N21 &amp;""", Latitude="&amp;'Sheet 1'!T21 &amp;", Longitude="&amp; 'Sheet 1'!U21 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="BLACK MOUNTAIN PENINSULA DISTRICT PARK", Latitude=-35.2922566155556, Longitude=149.099583376389 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V21 &amp;""", Latitude="&amp;'Sheet 1'!T21 &amp;", Longitude="&amp; 'Sheet 1'!U21 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Black Mountain Peninsula District Park", Latitude=-35.2922566155556, Longitude=149.099583376389 });</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N22 &amp;""", Latitude="&amp;'Sheet 1'!T22 &amp;", Longitude="&amp; 'Sheet 1'!U22 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="BLACK MOUNTAIN PENINSULA DISTRICT PARK", Latitude=-35.2916060963889, Longitude=149.1001386675 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V22 &amp;""", Latitude="&amp;'Sheet 1'!T22 &amp;", Longitude="&amp; 'Sheet 1'!U22 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Black Mountain Peninsula District Park", Latitude=-35.2916060963889, Longitude=149.1001386675 });</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N23 &amp;""", Latitude="&amp;'Sheet 1'!T23 &amp;", Longitude="&amp; 'Sheet 1'!U23 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="BLACK MOUNTAIN PENINSULA DISTRICT PARK", Latitude=-35.2921850475, Longitude=149.100972848333 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V23 &amp;""", Latitude="&amp;'Sheet 1'!T23 &amp;", Longitude="&amp; 'Sheet 1'!U23 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Black Mountain Peninsula District Park", Latitude=-35.2921850475, Longitude=149.100972848333 });</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N24 &amp;""", Latitude="&amp;'Sheet 1'!T24 &amp;", Longitude="&amp; 'Sheet 1'!U24 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="ACTON PARK DISTRICT PARK", Latitude=-35.2863102275, Longitude=149.124722943889 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V24 &amp;""", Latitude="&amp;'Sheet 1'!T24 &amp;", Longitude="&amp; 'Sheet 1'!U24 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Acton Park District Park", Latitude=-35.2863102275, Longitude=149.124722943889 });</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N25 &amp;""", Latitude="&amp;'Sheet 1'!T25 &amp;", Longitude="&amp; 'Sheet 1'!U25 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="ACTON PARK DISTRICT PARK", Latitude=-35.2862210494444, Longitude=149.124393686111 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V25 &amp;""", Latitude="&amp;'Sheet 1'!T25 &amp;", Longitude="&amp; 'Sheet 1'!U25 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Acton Park District Park", Latitude=-35.2862210494444, Longitude=149.124393686111 });</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N26 &amp;""", Latitude="&amp;'Sheet 1'!T26 &amp;", Longitude="&amp; 'Sheet 1'!U26 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="GINNINDERRA PENINSULA DISTRICT PARK", Latitude=-35.2290348625, Longitude=149.074213433056 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V26 &amp;""", Latitude="&amp;'Sheet 1'!T26 &amp;", Longitude="&amp; 'Sheet 1'!U26 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Ginninderra Peninsula District Park", Latitude=-35.2290348625, Longitude=149.074213433056 });</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N27 &amp;""", Latitude="&amp;'Sheet 1'!T27 &amp;", Longitude="&amp; 'Sheet 1'!U27 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="DIDDAMS CLOSE PEDESTRIAN PARKLAND", Latitude=-35.2291368633333, Longitude=149.074018669722 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V27 &amp;""", Latitude="&amp;'Sheet 1'!T27 &amp;", Longitude="&amp; 'Sheet 1'!U27 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Diddams Close Pedestrian Parkland", Latitude=-35.2291368633333, Longitude=149.074018669722 });</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N28 &amp;""", Latitude="&amp;'Sheet 1'!T28 &amp;", Longitude="&amp; 'Sheet 1'!U28 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="JOYNTON SMITH DRIVE PEDESTRIAN PARKLAND", Latitude=-35.2278958597222, Longitude=149.062728267778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V28 &amp;""", Latitude="&amp;'Sheet 1'!T28 &amp;", Longitude="&amp; 'Sheet 1'!U28 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Joynton Smith Drive Pedestrian Parkland", Latitude=-35.2278958597222, Longitude=149.062728267778 });</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N29 &amp;""", Latitude="&amp;'Sheet 1'!T29 &amp;", Longitude="&amp; 'Sheet 1'!U29 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LAKE GINNINDERRA WESTERN FORESHORES", Latitude=-35.2274651072222, Longitude=149.063448482222 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V29 &amp;""", Latitude="&amp;'Sheet 1'!T29 &amp;", Longitude="&amp; 'Sheet 1'!U29 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lake Ginninderra Western Foreshores", Latitude=-35.2274651072222, Longitude=149.063448482222 });</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N30 &amp;""", Latitude="&amp;'Sheet 1'!T30 &amp;", Longitude="&amp; 'Sheet 1'!U30 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LAKE GINNINDERRA WESTERN FORESHORES", Latitude=-35.2272830152778, Longitude=149.063379452222 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V30 &amp;""", Latitude="&amp;'Sheet 1'!T30 &amp;", Longitude="&amp; 'Sheet 1'!U30 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lake Ginninderra Western Foreshores", Latitude=-35.2272830152778, Longitude=149.063379452222 });</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N31 &amp;""", Latitude="&amp;'Sheet 1'!T31 &amp;", Longitude="&amp; 'Sheet 1'!U31 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LAKE GINNINDERRA WESTERN FORESHORES", Latitude=-35.2272381155556, Longitude=149.063186640833 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V31 &amp;""", Latitude="&amp;'Sheet 1'!T31 &amp;", Longitude="&amp; 'Sheet 1'!U31 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lake Ginninderra Western Foreshores", Latitude=-35.2272381155556, Longitude=149.063186640833 });</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N32 &amp;""", Latitude="&amp;'Sheet 1'!T32 &amp;", Longitude="&amp; 'Sheet 1'!U32 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LAKE GINNINDERRA WESTERN FORESHORES", Latitude=-35.2259402141667, Longitude=149.0632299225 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V32 &amp;""", Latitude="&amp;'Sheet 1'!T32 &amp;", Longitude="&amp; 'Sheet 1'!U32 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lake Ginninderra Western Foreshores", Latitude=-35.2259402141667, Longitude=149.0632299225 });</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N33 &amp;""", Latitude="&amp;'Sheet 1'!T33 &amp;", Longitude="&amp; 'Sheet 1'!U33 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LAKE GINNINDERRA WESTERN FORESHORES", Latitude=-35.2247099822222, Longitude=149.062822961944 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V33 &amp;""", Latitude="&amp;'Sheet 1'!T33 &amp;", Longitude="&amp; 'Sheet 1'!U33 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lake Ginninderra Western Foreshores", Latitude=-35.2247099822222, Longitude=149.062822961944 });</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N34 &amp;""", Latitude="&amp;'Sheet 1'!T34 &amp;", Longitude="&amp; 'Sheet 1'!U34 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="TOTTERDELL STREET PEDESTRIAN PARKLAND", Latitude=-35.2324267725, Longitude=149.060281999444 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V34 &amp;""", Latitude="&amp;'Sheet 1'!T34 &amp;", Longitude="&amp; 'Sheet 1'!U34 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Totterdell Street Pedestrian Parkland", Latitude=-35.2324267725, Longitude=149.060281999444 });</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N35 &amp;""", Latitude="&amp;'Sheet 1'!T35 &amp;", Longitude="&amp; 'Sheet 1'!U35 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="GINNINDERRA PENINSULA DISTRICT PARK", Latitude=-35.2257341958333, Longitude=149.069600325 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V35 &amp;""", Latitude="&amp;'Sheet 1'!T35 &amp;", Longitude="&amp; 'Sheet 1'!U35 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Ginninderra Peninsula District Park", Latitude=-35.2257341958333, Longitude=149.069600325 });</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N36 &amp;""", Latitude="&amp;'Sheet 1'!T36 &amp;", Longitude="&amp; 'Sheet 1'!U36 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="GINNINDERRA PENINSULA DISTRICT PARK", Latitude=-35.2258126394444, Longitude=149.069420674444 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V36 &amp;""", Latitude="&amp;'Sheet 1'!T36 &amp;", Longitude="&amp; 'Sheet 1'!U36 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Ginninderra Peninsula District Park", Latitude=-35.2258126394444, Longitude=149.069420674444 });</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N37 &amp;""", Latitude="&amp;'Sheet 1'!T37 &amp;", Longitude="&amp; 'Sheet 1'!U37 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="JOHN KNIGHT MEMORIAL PARK", Latitude=-35.2343980625, Longitude=149.073377714444 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V37 &amp;""", Latitude="&amp;'Sheet 1'!T37 &amp;", Longitude="&amp; 'Sheet 1'!U37 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="John Knight Memorial Park", Latitude=-35.2343980625, Longitude=149.073377714444 });</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N38 &amp;""", Latitude="&amp;'Sheet 1'!T38 &amp;", Longitude="&amp; 'Sheet 1'!U38 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="JOHN KNIGHT MEMORIAL PARK", Latitude=-35.2347513283333, Longitude=149.073363548889 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V38 &amp;""", Latitude="&amp;'Sheet 1'!T38 &amp;", Longitude="&amp; 'Sheet 1'!U38 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="John Knight Memorial Park", Latitude=-35.2347513283333, Longitude=149.073363548889 });</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N39 &amp;""", Latitude="&amp;'Sheet 1'!T39 &amp;", Longitude="&amp; 'Sheet 1'!U39 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="CARLILE STREET PEDESTRIAN PARKLAND", Latitude=-35.2180572947222, Longitude=149.067104296389 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V39 &amp;""", Latitude="&amp;'Sheet 1'!T39 &amp;", Longitude="&amp; 'Sheet 1'!U39 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Carlile Street Pedestrian Parkland", Latitude=-35.2180572947222, Longitude=149.067104296389 });</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N40 &amp;""", Latitude="&amp;'Sheet 1'!T40 &amp;", Longitude="&amp; 'Sheet 1'!U40 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="TATTERSALL CRESCENT NEIGHBOURHOOD PARK", Latitude=-35.2235855811111, Longitude=149.056927736667 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V40 &amp;""", Latitude="&amp;'Sheet 1'!T40 &amp;", Longitude="&amp; 'Sheet 1'!U40 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Tattersall Crescent Neighbourhood Park", Latitude=-35.2235855811111, Longitude=149.056927736667 });</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N41 &amp;""", Latitude="&amp;'Sheet 1'!T41 &amp;", Longitude="&amp; 'Sheet 1'!U41 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="HALL PARK", Latitude=-35.1721257663889, Longitude=149.069700832778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V41 &amp;""", Latitude="&amp;'Sheet 1'!T41 &amp;", Longitude="&amp; 'Sheet 1'!U41 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Hall Park", Latitude=-35.1721257663889, Longitude=149.069700832778 });</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N42 &amp;""", Latitude="&amp;'Sheet 1'!T42 &amp;", Longitude="&amp; 'Sheet 1'!U42 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="HALL PARK", Latitude=-35.1717891825, Longitude=149.069784489167 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V42 &amp;""", Latitude="&amp;'Sheet 1'!T42 &amp;", Longitude="&amp; 'Sheet 1'!U42 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Hall Park", Latitude=-35.1717891825, Longitude=149.069784489167 });</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N43 &amp;""", Latitude="&amp;'Sheet 1'!T43 &amp;", Longitude="&amp; 'Sheet 1'!U43 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="UMBAGONG DISTRICT PARK", Latitude=-35.2116579463889, Longitude=149.031092601667 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V43 &amp;""", Latitude="&amp;'Sheet 1'!T43 &amp;", Longitude="&amp; 'Sheet 1'!U43 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Umbagong District Park", Latitude=-35.2116579463889, Longitude=149.031092601667 });</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N44 &amp;""", Latitude="&amp;'Sheet 1'!T44 &amp;", Longitude="&amp; 'Sheet 1'!U44 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="UMBAGONG DISTRICT PARK", Latitude=-35.2157605647222, Longitude=149.028852577778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V44 &amp;""", Latitude="&amp;'Sheet 1'!T44 &amp;", Longitude="&amp; 'Sheet 1'!U44 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Umbagong District Park", Latitude=-35.2157605647222, Longitude=149.028852577778 });</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N45 &amp;""", Latitude="&amp;'Sheet 1'!T45 &amp;", Longitude="&amp; 'Sheet 1'!U45 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="UMBAGONG DISTRICT PARK", Latitude=-35.2160004736111, Longitude=149.028984936667 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V45 &amp;""", Latitude="&amp;'Sheet 1'!T45 &amp;", Longitude="&amp; 'Sheet 1'!U45 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Umbagong District Park", Latitude=-35.2160004736111, Longitude=149.028984936667 });</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N46 &amp;""", Latitude="&amp;'Sheet 1'!T46 &amp;", Longitude="&amp; 'Sheet 1'!U46 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="MARKS PLACE PEDESTRIAN PARKLAND", Latitude=-35.2080163841667, Longitude=149.014098287778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V46 &amp;""", Latitude="&amp;'Sheet 1'!T46 &amp;", Longitude="&amp; 'Sheet 1'!U46 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Marks Place Pedestrian Parkland", Latitude=-35.2080163841667, Longitude=149.014098287778 });</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N47 &amp;""", Latitude="&amp;'Sheet 1'!T47 &amp;", Longitude="&amp; 'Sheet 1'!U47 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="HARPER STREET PEDESTRIAN PARKLAND", Latitude=-35.2133183294444, Longitude=149.014794955556 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V47 &amp;""", Latitude="&amp;'Sheet 1'!T47 &amp;", Longitude="&amp; 'Sheet 1'!U47 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Harper Street Pedestrian Parkland", Latitude=-35.2133183294444, Longitude=149.014794955556 });</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N48 &amp;""", Latitude="&amp;'Sheet 1'!T48 &amp;", Longitude="&amp; 'Sheet 1'!U48 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="PALMERVILLE HERITAGE PARK", Latitude=-35.2120299963889, Longitude=149.085740790278 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V48 &amp;""", Latitude="&amp;'Sheet 1'!T48 &amp;", Longitude="&amp; 'Sheet 1'!U48 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Palmerville Heritage Park", Latitude=-35.2120299963889, Longitude=149.085740790278 });</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N49 &amp;""", Latitude="&amp;'Sheet 1'!T49 &amp;", Longitude="&amp; 'Sheet 1'!U49 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="PALMERVILLE HERITAGE PARK", Latitude=-35.211767665, Longitude=149.085556159167 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V49 &amp;""", Latitude="&amp;'Sheet 1'!T49 &amp;", Longitude="&amp; 'Sheet 1'!U49 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Palmerville Heritage Park", Latitude=-35.211767665, Longitude=149.085556159167 });</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N50 &amp;""", Latitude="&amp;'Sheet 1'!T50 &amp;", Longitude="&amp; 'Sheet 1'!U50 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="YERRABI DISTRICT PARK", Latitude=-35.1793904788889, Longitude=149.130639860833 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V50 &amp;""", Latitude="&amp;'Sheet 1'!T50 &amp;", Longitude="&amp; 'Sheet 1'!U50 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Yerrabi District Park", Latitude=-35.1793904788889, Longitude=149.130639860833 });</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N51 &amp;""", Latitude="&amp;'Sheet 1'!T51 &amp;", Longitude="&amp; 'Sheet 1'!U51 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="YERRABI DISTRICT PARK", Latitude=-35.1792691463889, Longitude=149.130874825 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V51 &amp;""", Latitude="&amp;'Sheet 1'!T51 &amp;", Longitude="&amp; 'Sheet 1'!U51 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Yerrabi District Park", Latitude=-35.1792691463889, Longitude=149.130874825 });</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N52 &amp;""", Latitude="&amp;'Sheet 1'!T52 &amp;", Longitude="&amp; 'Sheet 1'!U52 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="YERRABI DISTRICT PARK", Latitude=-35.1792068313889, Longitude=149.1308299625 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V52 &amp;""", Latitude="&amp;'Sheet 1'!T52 &amp;", Longitude="&amp; 'Sheet 1'!U52 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Yerrabi District Park", Latitude=-35.1792068313889, Longitude=149.1308299625 });</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N53 &amp;""", Latitude="&amp;'Sheet 1'!T53 &amp;", Longitude="&amp; 'Sheet 1'!U53 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="YERRABI DISTRICT PARK", Latitude=-35.1793595677778, Longitude=149.130603368611 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V53 &amp;""", Latitude="&amp;'Sheet 1'!T53 &amp;", Longitude="&amp; 'Sheet 1'!U53 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Yerrabi District Park", Latitude=-35.1793595677778, Longitude=149.130603368611 });</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N54 &amp;""", Latitude="&amp;'Sheet 1'!T54 &amp;", Longitude="&amp; 'Sheet 1'!U54 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="BAILLIEU LANE PEDESTRIAN PARKLAND", Latitude=-35.2179286372222, Longitude=149.142185953333 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V54 &amp;""", Latitude="&amp;'Sheet 1'!T54 &amp;", Longitude="&amp; 'Sheet 1'!U54 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Baillieu Lane Pedestrian Parkland", Latitude=-35.2179286372222, Longitude=149.142185953333 });</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N55 &amp;""", Latitude="&amp;'Sheet 1'!T55 &amp;", Longitude="&amp; 'Sheet 1'!U55 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="GRIFFIN PLACE - PEDESTRIAN PARKLAND", Latitude=-35.4184729152778, Longitude=149.083942389722 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V55 &amp;""", Latitude="&amp;'Sheet 1'!T55 &amp;", Longitude="&amp; 'Sheet 1'!U55 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Griffin Place - Pedestrian Parkland", Latitude=-35.4184729152778, Longitude=149.083942389722 });</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N56 &amp;""", Latitude="&amp;'Sheet 1'!T56 &amp;", Longitude="&amp; 'Sheet 1'!U56 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="NEWMAN-MORRIS CIRCUIT - NEIGHBOURHOOD PARK", Latitude=-35.4065853044444, Longitude=149.078788351944 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V56 &amp;""", Latitude="&amp;'Sheet 1'!T56 &amp;", Longitude="&amp; 'Sheet 1'!U56 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Newman-Morris Circuit - Neighbourhood Park", Latitude=-35.4065853044444, Longitude=149.078788351944 });</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N57 &amp;""", Latitude="&amp;'Sheet 1'!T57 &amp;", Longitude="&amp; 'Sheet 1'!U57 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="KAMBAH DISTRICT PARK", Latitude=-35.3886602452778, Longitude=149.060530320556 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V57 &amp;""", Latitude="&amp;'Sheet 1'!T57 &amp;", Longitude="&amp; 'Sheet 1'!U57 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Kambah District Park", Latitude=-35.3886602452778, Longitude=149.060530320556 });</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N58 &amp;""", Latitude="&amp;'Sheet 1'!T58 &amp;", Longitude="&amp; 'Sheet 1'!U58 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="KAMBAH DISTRICT PARK", Latitude=-35.3885965008333, Longitude=149.060430361111 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V58 &amp;""", Latitude="&amp;'Sheet 1'!T58 &amp;", Longitude="&amp; 'Sheet 1'!U58 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Kambah District Park", Latitude=-35.3885965008333, Longitude=149.060430361111 });</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N59 &amp;""", Latitude="&amp;'Sheet 1'!T59 &amp;", Longitude="&amp; 'Sheet 1'!U59 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="KAMBAH DISTRICT PARK", Latitude=-35.3918625694444, Longitude=149.062140881667 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V59 &amp;""", Latitude="&amp;'Sheet 1'!T59 &amp;", Longitude="&amp; 'Sheet 1'!U59 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Kambah District Park", Latitude=-35.3918625694444, Longitude=149.062140881667 });</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N60 &amp;""", Latitude="&amp;'Sheet 1'!T60 &amp;", Longitude="&amp; 'Sheet 1'!U60 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="KAMBAH DISTRICT PARK", Latitude=-35.3920610908333, Longitude=149.062086563333 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V60 &amp;""", Latitude="&amp;'Sheet 1'!T60 &amp;", Longitude="&amp; 'Sheet 1'!U60 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Kambah District Park", Latitude=-35.3920610908333, Longitude=149.062086563333 });</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N61 &amp;""", Latitude="&amp;'Sheet 1'!T61 &amp;", Longitude="&amp; 'Sheet 1'!U61 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="KAMBAH DISTRICT PARK", Latitude=-35.3921776216667, Longitude=149.062021864167 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V61 &amp;""", Latitude="&amp;'Sheet 1'!T61 &amp;", Longitude="&amp; 'Sheet 1'!U61 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Kambah District Park", Latitude=-35.3921776216667, Longitude=149.062021864167 });</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N62 &amp;""", Latitude="&amp;'Sheet 1'!T62 &amp;", Longitude="&amp; 'Sheet 1'!U62 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="TUGGERANONG TOWN PARK", Latitude=-35.4107607772222, Longitude=149.064733734167 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V62 &amp;""", Latitude="&amp;'Sheet 1'!T62 &amp;", Longitude="&amp; 'Sheet 1'!U62 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Tuggeranong Town Park", Latitude=-35.4107607772222, Longitude=149.064733734167 });</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N63 &amp;""", Latitude="&amp;'Sheet 1'!T63 &amp;", Longitude="&amp; 'Sheet 1'!U63 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="POINT HUT DISTRICT PARK", Latitude=-35.4560405747222, Longitude=149.084697139722 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V63 &amp;""", Latitude="&amp;'Sheet 1'!T63 &amp;", Longitude="&amp; 'Sheet 1'!U63 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Point Hut District Park", Latitude=-35.4560405747222, Longitude=149.084697139722 });</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N64 &amp;""", Latitude="&amp;'Sheet 1'!T64 &amp;", Longitude="&amp; 'Sheet 1'!U64 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="MARYBOROUGH STREET - PEDESTRIAN PARKLAND", Latitude=-35.3268016591667, Longitude=149.176660696944 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V64 &amp;""", Latitude="&amp;'Sheet 1'!T64 &amp;", Longitude="&amp; 'Sheet 1'!U64 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Maryborough Street - Pedestrian Parkland", Latitude=-35.3268016591667, Longitude=149.176660696944 });</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N65 &amp;""", Latitude="&amp;'Sheet 1'!T65 &amp;", Longitude="&amp; 'Sheet 1'!U65 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="MARYBOROUGH STREET - PEDESTRIAN PARKLAND", Latitude=-35.3268377869444, Longitude=149.176578630833 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V65 &amp;""", Latitude="&amp;'Sheet 1'!T65 &amp;", Longitude="&amp; 'Sheet 1'!U65 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Maryborough Street - Pedestrian Parkland", Latitude=-35.3268377869444, Longitude=149.176578630833 });</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N66 &amp;""", Latitude="&amp;'Sheet 1'!T66 &amp;", Longitude="&amp; 'Sheet 1'!U66 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="BEDFORD STREET - NEIGHBOURHOOD PARK", Latitude=-35.3182257413889, Longitude=149.112073273889 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V66 &amp;""", Latitude="&amp;'Sheet 1'!T66 &amp;", Longitude="&amp; 'Sheet 1'!U66 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Bedford Street - Neighbourhood Park", Latitude=-35.3182257413889, Longitude=149.112073273889 });</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N67 &amp;""", Latitude="&amp;'Sheet 1'!T67 &amp;", Longitude="&amp; 'Sheet 1'!U67 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="TELOPEA PARK", Latitude=-35.315636485, Longitude=149.137298353611 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V67 &amp;""", Latitude="&amp;'Sheet 1'!T67 &amp;", Longitude="&amp; 'Sheet 1'!U67 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Telopea Park", Latitude=-35.315636485, Longitude=149.137298353611 });</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N68 &amp;""", Latitude="&amp;'Sheet 1'!T68 &amp;", Longitude="&amp; 'Sheet 1'!U68 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="TELOPEA PARK", Latitude=-35.3155521886111, Longitude=149.137199743611 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V68 &amp;""", Latitude="&amp;'Sheet 1'!T68 &amp;", Longitude="&amp; 'Sheet 1'!U68 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Telopea Park", Latitude=-35.3155521886111, Longitude=149.137199743611 });</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N69 &amp;""", Latitude="&amp;'Sheet 1'!T69 &amp;", Longitude="&amp; 'Sheet 1'!U69 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="TELOPEA PARK", Latitude=-35.3148750583333, Longitude=149.1377928025 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V69 &amp;""", Latitude="&amp;'Sheet 1'!T69 &amp;", Longitude="&amp; 'Sheet 1'!U69 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Telopea Park", Latitude=-35.3148750583333, Longitude=149.1377928025 });</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N70 &amp;""", Latitude="&amp;'Sheet 1'!T70 &amp;", Longitude="&amp; 'Sheet 1'!U70 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="TELOPEA PARK", Latitude=-35.3111162605556, Longitude=149.140144977778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V70 &amp;""", Latitude="&amp;'Sheet 1'!T70 &amp;", Longitude="&amp; 'Sheet 1'!U70 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Telopea Park", Latitude=-35.3111162605556, Longitude=149.140144977778 });</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N71 &amp;""", Latitude="&amp;'Sheet 1'!T71 &amp;", Longitude="&amp; 'Sheet 1'!U71 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="TELOPEA PARK", Latitude=-35.2818903794444, Longitude=149.136340452222 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V71 &amp;""", Latitude="&amp;'Sheet 1'!T71 &amp;", Longitude="&amp; 'Sheet 1'!U71 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Telopea Park", Latitude=-35.2818903794444, Longitude=149.136340452222 });</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N72 &amp;""", Latitude="&amp;'Sheet 1'!T72 &amp;", Longitude="&amp; 'Sheet 1'!U72 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="ALEXANDRINA DRIVE - PEDESTRIAN PARKLAND", Latitude=-35.2978663536111, Longitude=149.109266522778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V72 &amp;""", Latitude="&amp;'Sheet 1'!T72 &amp;", Longitude="&amp; 'Sheet 1'!U72 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Alexandrina Drive - Pedestrian Parkland", Latitude=-35.2978663536111, Longitude=149.109266522778 });</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N73 &amp;""", Latitude="&amp;'Sheet 1'!T73 &amp;", Longitude="&amp; 'Sheet 1'!U73 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="ALEXANDRINA DRIVE - PEDESTRIAN PARKLAND", Latitude=-35.2987434661111, Longitude=149.110603686389 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V73 &amp;""", Latitude="&amp;'Sheet 1'!T73 &amp;", Longitude="&amp; 'Sheet 1'!U73 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Alexandrina Drive - Pedestrian Parkland", Latitude=-35.2987434661111, Longitude=149.110603686389 });</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N74 &amp;""", Latitude="&amp;'Sheet 1'!T74 &amp;", Longitude="&amp; 'Sheet 1'!U74 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LENNOX GARDENS", Latitude=-35.2989592333333, Longitude=149.121082224722 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V74 &amp;""", Latitude="&amp;'Sheet 1'!T74 &amp;", Longitude="&amp; 'Sheet 1'!U74 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lennox Gardens", Latitude=-35.2989592333333, Longitude=149.121082224722 });</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N75 &amp;""", Latitude="&amp;'Sheet 1'!T75 &amp;", Longitude="&amp; 'Sheet 1'!U75 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LENNOX GARDENS", Latitude=-35.2990462227778, Longitude=149.121452165 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V75 &amp;""", Latitude="&amp;'Sheet 1'!T75 &amp;", Longitude="&amp; 'Sheet 1'!U75 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lennox Gardens", Latitude=-35.2990462227778, Longitude=149.121452165 });</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N76 &amp;""", Latitude="&amp;'Sheet 1'!T76 &amp;", Longitude="&amp; 'Sheet 1'!U76 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LENNOX GARDENS", Latitude=-35.2984784616667, Longitude=149.121806358889 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V76 &amp;""", Latitude="&amp;'Sheet 1'!T76 &amp;", Longitude="&amp; 'Sheet 1'!U76 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lennox Gardens", Latitude=-35.2984784616667, Longitude=149.121806358889 });</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N77 &amp;""", Latitude="&amp;'Sheet 1'!T77 &amp;", Longitude="&amp; 'Sheet 1'!U77 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="WESTON PARK", Latitude=-35.2957272672222, Longitude=149.095152656111 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V77 &amp;""", Latitude="&amp;'Sheet 1'!T77 &amp;", Longitude="&amp; 'Sheet 1'!U77 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Weston Park", Latitude=-35.2957272672222, Longitude=149.095152656111 });</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N78 &amp;""", Latitude="&amp;'Sheet 1'!T78 &amp;", Longitude="&amp; 'Sheet 1'!U78 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="WESTON PARK", Latitude=-35.2937265158333, Longitude=149.093392905278 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V78 &amp;""", Latitude="&amp;'Sheet 1'!T78 &amp;", Longitude="&amp; 'Sheet 1'!U78 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Weston Park", Latitude=-35.2937265158333, Longitude=149.093392905278 });</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N79 &amp;""", Latitude="&amp;'Sheet 1'!T79 &amp;", Longitude="&amp; 'Sheet 1'!U79 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="WESTON PARK", Latitude=-35.2913868886111, Longitude=149.090181638889 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V79 &amp;""", Latitude="&amp;'Sheet 1'!T79 &amp;", Longitude="&amp; 'Sheet 1'!U79 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Weston Park", Latitude=-35.2913868886111, Longitude=149.090181638889 });</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N80 &amp;""", Latitude="&amp;'Sheet 1'!T80 &amp;", Longitude="&amp; 'Sheet 1'!U80 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="WESTON PARK", Latitude=-35.2925320763889, Longitude=149.093198696667 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V80 &amp;""", Latitude="&amp;'Sheet 1'!T80 &amp;", Longitude="&amp; 'Sheet 1'!U80 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Weston Park", Latitude=-35.2925320763889, Longitude=149.093198696667 });</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N81 &amp;""", Latitude="&amp;'Sheet 1'!T81 &amp;", Longitude="&amp; 'Sheet 1'!U81 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="WESTON PARK", Latitude=-35.2908463258333, Longitude=149.091178743333 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V81 &amp;""", Latitude="&amp;'Sheet 1'!T81 &amp;", Longitude="&amp; 'Sheet 1'!U81 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Weston Park", Latitude=-35.2908463258333, Longitude=149.091178743333 });</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N82 &amp;""", Latitude="&amp;'Sheet 1'!T82 &amp;", Longitude="&amp; 'Sheet 1'!U82 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="WESTON PARK", Latitude=-35.2902876805556, Longitude=149.092154201944 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V82 &amp;""", Latitude="&amp;'Sheet 1'!T82 &amp;", Longitude="&amp; 'Sheet 1'!U82 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Weston Park", Latitude=-35.2902876805556, Longitude=149.092154201944 });</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N83 &amp;""", Latitude="&amp;'Sheet 1'!T83 &amp;", Longitude="&amp; 'Sheet 1'!U83 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="WESTON PARK", Latitude=-35.2900038886111, Longitude=149.095470733611 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V83 &amp;""", Latitude="&amp;'Sheet 1'!T83 &amp;", Longitude="&amp; 'Sheet 1'!U83 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Weston Park", Latitude=-35.2900038886111, Longitude=149.095470733611 });</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N84 &amp;""", Latitude="&amp;'Sheet 1'!T84 &amp;", Longitude="&amp; 'Sheet 1'!U84 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="ELLENBOROUGH STREET - PEDESTRIAN PARKLAND", Latitude=-35.2406795019444, Longitude=149.124022163889 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V84 &amp;""", Latitude="&amp;'Sheet 1'!T84 &amp;", Longitude="&amp; 'Sheet 1'!U84 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Ellenborough Street - Pedestrian Parkland", Latitude=-35.2406795019444, Longitude=149.124022163889 });</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N85 &amp;""", Latitude="&amp;'Sheet 1'!T85 &amp;", Longitude="&amp; 'Sheet 1'!U85 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="JOHN KNIGHT MEMORIAL PARK", Latitude=-35.2378776122222, Longitude=149.074245074444 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V85 &amp;""", Latitude="&amp;'Sheet 1'!T85 &amp;", Longitude="&amp; 'Sheet 1'!U85 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="John Knight Memorial Park", Latitude=-35.2378776122222, Longitude=149.074245074444 });</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N86 &amp;""", Latitude="&amp;'Sheet 1'!T86 &amp;", Longitude="&amp; 'Sheet 1'!U86 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="JOHN KNIGHT MEMORIAL PARK", Latitude=-35.2378608791667, Longitude=149.074205472778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V86 &amp;""", Latitude="&amp;'Sheet 1'!T86 &amp;", Longitude="&amp; 'Sheet 1'!U86 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="John Knight Memorial Park", Latitude=-35.2378608791667, Longitude=149.074205472778 });</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N87 &amp;""", Latitude="&amp;'Sheet 1'!T87 &amp;", Longitude="&amp; 'Sheet 1'!U87 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="VICTORIA STREET ROAD VERGE", Latitude=-35.1614151169444, Longitude=149.063107794722 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V87 &amp;""", Latitude="&amp;'Sheet 1'!T87 &amp;", Longitude="&amp; 'Sheet 1'!U87 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Victoria Street Road Verge", Latitude=-35.1614151169444, Longitude=149.063107794722 });</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N88 &amp;""", Latitude="&amp;'Sheet 1'!T88 &amp;", Longitude="&amp; 'Sheet 1'!U88 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="FADDEN PINES DISTRICT PARK", Latitude=-35.4116606102778, Longitude=149.120235975 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V88 &amp;""", Latitude="&amp;'Sheet 1'!T88 &amp;", Longitude="&amp; 'Sheet 1'!U88 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Fadden Pines District Park", Latitude=-35.4116606102778, Longitude=149.120235975 });</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N89 &amp;""", Latitude="&amp;'Sheet 1'!T89 &amp;", Longitude="&amp; 'Sheet 1'!U89 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="FADDEN PINES DISTRICT PARK", Latitude=-35.4104198302778, Longitude=149.120029539167 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V89 &amp;""", Latitude="&amp;'Sheet 1'!T89 &amp;", Longitude="&amp; 'Sheet 1'!U89 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Fadden Pines District Park", Latitude=-35.4104198302778, Longitude=149.120029539167 });</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N90 &amp;""", Latitude="&amp;'Sheet 1'!T90 &amp;", Longitude="&amp; 'Sheet 1'!U90 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="FADDEN PINES DISTRICT PARK", Latitude=-35.4109169283333, Longitude=149.119364137778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V90 &amp;""", Latitude="&amp;'Sheet 1'!T90 &amp;", Longitude="&amp; 'Sheet 1'!U90 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Fadden Pines District Park", Latitude=-35.4109169283333, Longitude=149.119364137778 });</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N91 &amp;""", Latitude="&amp;'Sheet 1'!T91 &amp;", Longitude="&amp; 'Sheet 1'!U91 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="FADDEN PINES DISTRICT PARK", Latitude=-35.4112931583333, Longitude=149.121089246944 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V91 &amp;""", Latitude="&amp;'Sheet 1'!T91 &amp;", Longitude="&amp; 'Sheet 1'!U91 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Fadden Pines District Park", Latitude=-35.4112931583333, Longitude=149.121089246944 });</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N92 &amp;""", Latitude="&amp;'Sheet 1'!T92 &amp;", Longitude="&amp; 'Sheet 1'!U92 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="CANDLEBARK CLOSE NEIGHBOURHOOD PARK", Latitude=-35.1924169894444, Longitude=149.110003771667 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V92 &amp;""", Latitude="&amp;'Sheet 1'!T92 &amp;", Longitude="&amp; 'Sheet 1'!U92 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Candlebark Close Neighbourhood Park", Latitude=-35.1924169894444, Longitude=149.110003771667 });</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N93 &amp;""", Latitude="&amp;'Sheet 1'!T93 &amp;", Longitude="&amp; 'Sheet 1'!U93 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="CANDLEBARK CLOSE NEIGHBOURHOOD PARK", Latitude=-35.1920397338889, Longitude=149.110137864722 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V93 &amp;""", Latitude="&amp;'Sheet 1'!T93 &amp;", Longitude="&amp; 'Sheet 1'!U93 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Candlebark Close Neighbourhood Park", Latitude=-35.1920397338889, Longitude=149.110137864722 });</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N94 &amp;""", Latitude="&amp;'Sheet 1'!T94 &amp;", Longitude="&amp; 'Sheet 1'!U94 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="TUGGERANONG TOWN PARK", Latitude=-35.4099061019444, Longitude=149.065091572778 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V94 &amp;""", Latitude="&amp;'Sheet 1'!T94 &amp;", Longitude="&amp; 'Sheet 1'!U94 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Tuggeranong Town Park", Latitude=-35.4099061019444, Longitude=149.065091572778 });</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N95 &amp;""", Latitude="&amp;'Sheet 1'!T95 &amp;", Longitude="&amp; 'Sheet 1'!U95 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LAKE TUGGERANONG DISTRICT PARK", Latitude=-35.4084348838889, Longitude=149.069792675556 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V95 &amp;""", Latitude="&amp;'Sheet 1'!T95 &amp;", Longitude="&amp; 'Sheet 1'!U95 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lake Tuggeranong District Park", Latitude=-35.4084348838889, Longitude=149.069792675556 });</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N96 &amp;""", Latitude="&amp;'Sheet 1'!T96 &amp;", Longitude="&amp; 'Sheet 1'!U96 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LAKE TUGGERANONG DISTRICT PARK", Latitude=-35.4072201472222, Longitude=149.070569910833 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V96 &amp;""", Latitude="&amp;'Sheet 1'!T96 &amp;", Longitude="&amp; 'Sheet 1'!U96 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lake Tuggeranong District Park", Latitude=-35.4072201472222, Longitude=149.070569910833 });</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N97 &amp;""", Latitude="&amp;'Sheet 1'!T97 &amp;", Longitude="&amp; 'Sheet 1'!U97 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="LAKE TUGGERANONG DISTRICT PARK", Latitude=-35.4051803430556, Longitude=149.071506821111 });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V97 &amp;""", Latitude="&amp;'Sheet 1'!T97 &amp;", Longitude="&amp; 'Sheet 1'!U97 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Lake Tuggeranong District Park", Latitude=-35.4051803430556, Longitude=149.071506821111 });</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!N98 &amp;""", Latitude="&amp;'Sheet 1'!T98 &amp;", Longitude="&amp; 'Sheet 1'!U98 &amp;" });"</f>
-        <v>Locations.Add(new LocationData{LocationName="BUNYA CLOSE PEDESTRIAN PARKLAND", Latitude=, Longitude= });</v>
+        <f>"Locations.Add(new LocationData{LocationName="""&amp;'Sheet 1'!V98 &amp;""", Latitude="&amp;'Sheet 1'!T98 &amp;", Longitude="&amp; 'Sheet 1'!U98 &amp;" });"</f>
+        <v>Locations.Add(new LocationData{LocationName="Bunya Close Pedestrian Parkland", Latitude=, Longitude= });</v>
       </c>
     </row>
   </sheetData>
